--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50017711614299</v>
+        <v>22.906497</v>
       </c>
       <c r="N2">
-        <v>1.50017711614299</v>
+        <v>68.719491</v>
       </c>
       <c r="O2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q2">
-        <v>3.668849490779047</v>
+        <v>66.234242972486</v>
       </c>
       <c r="R2">
-        <v>3.668849490779047</v>
+        <v>596.1081867523741</v>
       </c>
       <c r="S2">
-        <v>0.06981145769889872</v>
+        <v>0.1146362235732297</v>
       </c>
       <c r="T2">
-        <v>0.06981145769889872</v>
+        <v>0.1146362235732297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1378795291873</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N3">
-        <v>1.1378795291873</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q3">
-        <v>2.782810567034948</v>
+        <v>0.3843368726235555</v>
       </c>
       <c r="R3">
-        <v>2.782810567034948</v>
+        <v>3.459031853612</v>
       </c>
       <c r="S3">
-        <v>0.05295176667041655</v>
+        <v>0.0006651986295942433</v>
       </c>
       <c r="T3">
-        <v>0.05295176667041655</v>
+        <v>0.0006651986295942433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3792377021134</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>11.3792377021134</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.5712077572999406</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.5712077572999406</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50017711614299</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N4">
-        <v>1.50017711614299</v>
+        <v>3.631285</v>
       </c>
       <c r="O4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q4">
-        <v>17.07087199986206</v>
+        <v>3.499959174498889</v>
       </c>
       <c r="R4">
-        <v>17.07087199986206</v>
+        <v>31.49963257049</v>
       </c>
       <c r="S4">
-        <v>0.3248272957222427</v>
+        <v>0.00605762343493079</v>
       </c>
       <c r="T4">
-        <v>0.3248272957222427</v>
+        <v>0.006057623434930789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1378795291873</v>
+        <v>22.906497</v>
       </c>
       <c r="N5">
-        <v>1.1378795291873</v>
+        <v>68.719491</v>
       </c>
       <c r="O5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q5">
-        <v>12.94820163899117</v>
+        <v>275.804066038211</v>
       </c>
       <c r="R5">
-        <v>12.94820163899117</v>
+        <v>2482.236594343899</v>
       </c>
       <c r="S5">
-        <v>0.2463804615776978</v>
+        <v>0.4773533320203581</v>
       </c>
       <c r="T5">
-        <v>0.2463804615776978</v>
+        <v>0.4773533320203581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.09651549515173</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>6.09651549515173</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.50017711614299</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N6">
-        <v>1.50017711614299</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q6">
-        <v>9.145853034037776</v>
+        <v>1.600405884340222</v>
       </c>
       <c r="R6">
-        <v>9.145853034037776</v>
+        <v>14.403652959062</v>
       </c>
       <c r="S6">
-        <v>0.1740287612808276</v>
+        <v>0.002769934078379217</v>
       </c>
       <c r="T6">
-        <v>0.1740287612808276</v>
+        <v>0.002769934078379217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.09651549515173</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>6.09651549515173</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1378795291873</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N7">
-        <v>1.1378795291873</v>
+        <v>3.631285</v>
       </c>
       <c r="O7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q7">
-        <v>6.937100181306331</v>
+        <v>14.57407721404056</v>
       </c>
       <c r="R7">
-        <v>6.937100181306331</v>
+        <v>131.166694926365</v>
       </c>
       <c r="S7">
-        <v>0.1320002570499165</v>
+        <v>0.02522437184910968</v>
       </c>
       <c r="T7">
-        <v>0.1320002570499165</v>
+        <v>0.02522437184910968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H8">
+        <v>26.682297</v>
+      </c>
+      <c r="I8">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J8">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.906497</v>
+      </c>
+      <c r="N8">
+        <v>68.719491</v>
+      </c>
+      <c r="O8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="P8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="Q8">
+        <v>203.732652061203</v>
+      </c>
+      <c r="R8">
+        <v>1833.593868550827</v>
+      </c>
+      <c r="S8">
+        <v>0.3526143094978367</v>
+      </c>
+      <c r="T8">
+        <v>0.3526143094978366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H9">
+        <v>26.682297</v>
+      </c>
+      <c r="I9">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J9">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1329193333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.3987579999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="P9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="Q9">
+        <v>1.182197709680667</v>
+      </c>
+      <c r="R9">
+        <v>10.639779387126</v>
+      </c>
+      <c r="S9">
+        <v>0.002046112024123379</v>
+      </c>
+      <c r="T9">
+        <v>0.002046112024123379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H10">
+        <v>26.682297</v>
+      </c>
+      <c r="I10">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J10">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.210428333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.631285</v>
+      </c>
+      <c r="O10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="P10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="Q10">
+        <v>10.76566942907167</v>
+      </c>
+      <c r="R10">
+        <v>96.89102486164501</v>
+      </c>
+      <c r="S10">
+        <v>0.01863289489243819</v>
+      </c>
+      <c r="T10">
+        <v>0.01863289489243818</v>
       </c>
     </row>
   </sheetData>
